--- a/user-data/dev-coop-in-detail/dev-coop-in-detail.xlsx
+++ b/user-data/dev-coop-in-detail/dev-coop-in-detail.xlsx
@@ -939,7 +939,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/dev-coop-in-detail/dev-coop-in-detail.xlsx
+++ b/user-data/dev-coop-in-detail/dev-coop-in-detail.xlsx
@@ -915,7 +915,7 @@
     <t xml:space="preserve">Description: Detailed breakdown of the characteristics of development cooperation from different providers.</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: US$</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on national sources. India: Ministry of Finance, Union Budget of India; Mexico: AMEXCID; South Africa: Ministry of Finance, Estimates of National Expenditures.</t>

--- a/user-data/dev-coop-in-detail/dev-coop-in-detail.xlsx
+++ b/user-data/dev-coop-in-detail/dev-coop-in-detail.xlsx
@@ -555,7 +555,7 @@
     <t xml:space="preserve">Institute of Applied Economic Research (Ipea)</t>
   </si>
   <si>
-    <t xml:space="preserve">Caixa Econômica Federal</t>
+    <t xml:space="preserve">Caixa EconÃ´mica Federal</t>
   </si>
   <si>
     <t xml:space="preserve">Special Secretariat for Human Rights (SDH/PR)</t>
@@ -915,7 +915,7 @@
     <t xml:space="preserve">Description: Detailed breakdown of the characteristics of development cooperation from different providers.</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: US$</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on national sources. India: Ministry of Finance, Union Budget of India; Mexico: AMEXCID; South Africa: Ministry of Finance, Estimates of National Expenditures.</t>
